--- a/Casos Cartera/Reportes y Consultas.xlsx
+++ b/Casos Cartera/Reportes y Consultas.xlsx
@@ -9,24 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Cargar Rendición PAC" sheetId="15" r:id="rId1"/>
-    <sheet name="Generar Nómina de Cargo" sheetId="38" r:id="rId2"/>
-    <sheet name="Generar Nómina de Reintento" sheetId="16" r:id="rId3"/>
-    <sheet name="Reporte Rendición" sheetId="18" r:id="rId4"/>
-    <sheet name="Subir Universo" sheetId="17" r:id="rId5"/>
+    <sheet name="Generar Reporte Sinacofi" sheetId="15" r:id="rId1"/>
+    <sheet name="Generar Seguimiento Sinacofi" sheetId="38" r:id="rId2"/>
+    <sheet name="Cartola Trimestral" sheetId="16" r:id="rId3"/>
+    <sheet name="Mandato de Prenda" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cargar Rendición PAC'!$A$2:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Generar Reporte Sinacofi'!$A$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -43,72 +42,9 @@
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>TC_Cartera_PAC_Archivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PAC_ArchivoError</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo Excel con formato correcto, el cual posee todas las rendiciones de PAC que el banco Santander entrega</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo Excel con formato incorrecto, el cual posee informacion correspondientes a las rendiciones de PAC que el banco Santander entrega</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Cargar Redición PAC, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Sistema carga archivo de manera exitosa</t>
-  </si>
-  <si>
-    <t>Sistema emite mensaje indicando que el archivo no cumple con el formato establecido</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_FechaError</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de cargo, sin indicar fecha.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de cargo, indicando fecha en la cual existe regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de cargo, indicando fecha en la cual no hay regitros.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con información correspondiente a nómina de cargo</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel sin información correspondiente a nómina de cargo</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
   </si>
   <si>
-    <t>TC_Cartera_PACNominaReintento_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACNominaReintento_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACNominaReintento_FechaError</t>
-  </si>
-  <si>
     <t>Validar emisión de nómina de reintento, indicando fecha en la cual existe regitros.</t>
   </si>
   <si>
@@ -118,12 +54,6 @@
     <t>Validar emisión de nómina de reintento, sin indicar fecha.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, hacer clic en boton confirmar</t>
   </si>
   <si>
@@ -133,61 +63,79 @@
     <t>Descarga de archivo excel sin información correspondiente a nómina de reintento</t>
   </si>
   <si>
-    <t>TC_Cartera_PACReporteRendicion_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACReporteRendicion_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACReporteRendicion_FechaError</t>
-  </si>
-  <si>
     <t>Validar emisión de reporte rendición, indicando fecha en la cual existe regitros.</t>
   </si>
   <si>
     <t>Validar emisión de reporte rendición, indicando fecha en la cual no hay regitros.</t>
   </si>
   <si>
-    <t>Validar emisión de reporte rendición, sin indicar fecha.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>Descarga de archivo excel con información correspondiente a reporte rendición</t>
   </si>
   <si>
     <t>Descarga de archivo excel sin información correspondiente a reporte rendición.</t>
   </si>
   <si>
-    <t>TC_Cartera_PACSubirUniverso_Archivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACSubirUniverso_ArchivoError</t>
-  </si>
-  <si>
-    <t>Lectura es exitosa, debe borra los campos a leer del Excel: CreCodigoConvenio, CreBancoDebito, CreCodigoServicio, CreBancoDebito, Fecha Registro.</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que no tengan activado el PAC.</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que tengan activado el PAC.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Subir Universo, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Subir universo, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Sistema no modificar los créditos ya que no tienen PAC activado.</t>
+    <t>TC_Cartera_ReportesConsultas_ReporteSinacofi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga de archivo excel el cual continene información correspondiente a los créditos
+de clientes que se encuentran en estado Morosos y aquellos que se encuentran sin
+seguro de cesantía y que además no se encuentren en lista blanca. </t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes y Consultas - sub modulo Generar Reporte Sinacofi, hacer clic en boton emitir</t>
+  </si>
+  <si>
+    <t>Validar emisión de archivo excel, el cual debe contener información correspondiente a los créditos de clientes que se encuentran en estado Morosos
+y aquellos que se encuentran sin seguro de cesantía y que además no se encuentren en lista blanca.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReporteConsulta_SeguimientoSinacofi</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReporteConsulta_ArchivoError</t>
+  </si>
+  <si>
+    <t>Validar carga de archivo Excel, con los clientes que son informados por Sinacofi y que se encuentran dentro de esta entidad como morosos</t>
+  </si>
+  <si>
+    <t>Se debe generar registro en el seguimiento del crédito.</t>
+  </si>
+  <si>
+    <t>Validar carga de archivo Excel, que no cumple con el formato establecido</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes y Consultas - sub modulo Generar Seguimiento Sinacofi, hacer clic en boton browse, seleccionar archivo</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensaje indicando que el archivo no cumple con el formato correspondiente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesConsultas_GenerarCartola</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesConsultas_GenerarCartolaTrimestral</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesConsultas_ExportalExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesConsultas_VerBitacora</t>
+  </si>
+  <si>
+    <t>TC_Cartera_RegistroConsulta_GenerarEmail</t>
+  </si>
+  <si>
+    <t>TC_Cartera_RegistroConsulta_GenerarCartaCertificada</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Registro y Consulta - sub modulo Mandato de Prenda, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -263,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,14 +552,14 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="156" style="5" customWidth="1"/>
-    <col min="3" max="3" width="175" style="4" customWidth="1"/>
+    <col min="3" max="3" width="165" style="4" customWidth="1"/>
     <col min="4" max="4" width="86.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,33 +583,25 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -883,16 +826,16 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:D5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="140.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,45 +860,37 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1173,14 +1108,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:D5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="101" style="5" customWidth="1"/>
     <col min="3" max="3" width="160.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" style="4" customWidth="1"/>
@@ -1208,48 +1143,50 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1467,12 +1404,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="82.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="82.5703125" style="4" customWidth="1"/>
@@ -1500,45 +1437,37 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1746,285 +1675,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="175" style="4" customWidth="1"/>
-    <col min="4" max="4" width="144.5703125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Casos Cartera/Reportes y Consultas.xlsx
+++ b/Casos Cartera/Reportes y Consultas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generar Reporte Sinacofi" sheetId="15" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -40,39 +40,6 @@
   </si>
   <si>
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
-  </si>
-  <si>
-    <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de reintento, indicando fecha en la cual existe regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de reintento, indicando fecha en la cual no hay regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de reintento, sin indicar fecha.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con información correspondiente a nómina de reintento</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel sin información correspondiente a nómina de reintento</t>
-  </si>
-  <si>
-    <t>Validar emisión de reporte rendición, indicando fecha en la cual existe regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de reporte rendición, indicando fecha en la cual no hay regitros.</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con información correspondiente a reporte rendición</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel sin información correspondiente a reporte rendición.</t>
   </si>
   <si>
     <t>TC_Cartera_ReportesConsultas_ReporteSinacofi</t>
@@ -129,13 +96,58 @@
     <t>TC_Cartera_RegistroConsulta_GenerarCartaCertificada</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Registro y Consulta - sub modulo Mandato de Prenda, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
+    <t>Validar emisión de cartola trimestral masiva</t>
+  </si>
+  <si>
+    <t>Validar exportación de archivo excel, del conjunto de créditos seleccionados.</t>
+  </si>
+  <si>
+    <t>Validar consulta de movimientos que se ha registrado a crédito seleccionado.</t>
+  </si>
+  <si>
+    <t>Validar emisión de cartola trimestral, seleccionando crédito cualquiera</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes y Consultas - sub modulo Cartola Trimestral, hacer clic en boton ver bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, hacer clic en boton generar cartola trimestral</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte y Consulta - sub modulo Cartola Trimestral, hacer clic en boton generar cartola masivatrimestral</t>
+  </si>
+  <si>
+    <t>Emisión de cartola trimestral a crédito seleccionado</t>
+  </si>
+  <si>
+    <t>Emisión de cartola trimestral masiva</t>
+  </si>
+  <si>
+    <t>Visualizar conjunto de créditos seleccionados en planilla Excel</t>
+  </si>
+  <si>
+    <t>Consulta de bitácora de manera exitosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debe recorrer los procesos que sean prenda y seleccionar las operaciones que cuenten con el CAVT y no
+tengan mandato prenda para generar el correo o carta certificada al cliente con pdf</t>
+  </si>
+  <si>
+    <t>Validar envío por correo electrónico de mandatos prenda, el cual es un documento que es parte del conjunto solicitados y firmados
+por el cliente al momento de solicitar un crédito</t>
+  </si>
+  <si>
+    <t>Validar envío por carta certificada de mandatos prenda, el cual es un documento que es parte del conjunto solicitados y firmados
+por el cliente al momento de solicitar un crédito</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Registro y Consulta - sub modulo Mandato de Prenda, hacer clic en boton Generar Emails</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Registro y Consulta - sub modulo Mandato de Prenda, hacer clic en boton Generar Carta Certificada</t>
   </si>
 </sst>
 </file>
@@ -235,14 +247,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,37 +576,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,51 +851,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1108,88 +1120,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="101" style="5" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="160.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1402,65 +1420,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="137.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="166" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
